--- a/trunk/DOC/재테크를 위한 Android SW 메뉴트리_1.0v_20100916.xlsx
+++ b/trunk/DOC/재테크를 위한 Android SW 메뉴트리_1.0v_20100916.xlsx
@@ -2082,10 +2082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:L64"/>
+  <dimension ref="A3:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
